--- a/Group-one Details.xlsx
+++ b/Group-one Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Software-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{260D5AE4-BFFA-4D09-9658-2E3BB4D74723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F4BE4-B467-428F-8B4D-7E2B03A798D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1732D32A-E9EB-4735-B240-C10D295AF048}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Group one Details</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Philip Maher Anton Mhana</t>
+  </si>
+  <si>
+    <t>celestial_19292@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -139,10 +142,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC32506A-D1FE-4DCF-B51B-1DF414E56CBB}">
   <dimension ref="A6:I15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,12 +514,12 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F8" s="1" t="s">
@@ -565,7 +568,9 @@
       <c r="G11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="I11" s="1">
         <v>1094067282</v>
       </c>
@@ -614,10 +619,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{BA17109E-B447-45B5-AE24-8F156C692EDF}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{C025CF49-C138-4D0B-B33E-1E9A3C71D3D6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Group-one Details.xlsx
+++ b/Group-one Details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Software-testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Software-testing\1.Graduation-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F4BE4-B467-428F-8B4D-7E2B03A798D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECDBEA-78D6-4C7C-8C65-FAD083FD0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1732D32A-E9EB-4735-B240-C10D295AF048}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Group one Details</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>celestial_19292@hotmail.com</t>
+  </si>
+  <si>
+    <t>abdelrhmansaeed40@gmail.com</t>
+  </si>
+  <si>
+    <t>philipmaheer@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -498,7 +504,7 @@
   <dimension ref="A6:I15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +588,9 @@
       <c r="G12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="1">
         <v>1063846021</v>
       </c>
@@ -594,7 +602,9 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="I13" s="1">
         <v>1552899199</v>
       </c>
@@ -620,10 +630,12 @@
   <hyperlinks>
     <hyperlink ref="H9" r:id="rId1" xr:uid="{BA17109E-B447-45B5-AE24-8F156C692EDF}"/>
     <hyperlink ref="H11" r:id="rId2" xr:uid="{C025CF49-C138-4D0B-B33E-1E9A3C71D3D6}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{DBFFEE00-5BFE-4105-85DA-4AC193112329}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{5B695168-9014-451A-8D5B-8DEF30923FBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Group-one Details.xlsx
+++ b/Group-one Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Software-testing\1.Graduation-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ECDBEA-78D6-4C7C-8C65-FAD083FD0C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A099F9D9-2BCC-40C8-AA14-D618EBFD1794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1732D32A-E9EB-4735-B240-C10D295AF048}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Group one Details</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>philipmaheer@gmail.com</t>
+  </si>
+  <si>
+    <t>ahmed.raafat.elsherif@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A6:I15"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +565,9 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="I10" s="1">
         <v>1289894744</v>
       </c>
@@ -632,10 +637,11 @@
     <hyperlink ref="H11" r:id="rId2" xr:uid="{C025CF49-C138-4D0B-B33E-1E9A3C71D3D6}"/>
     <hyperlink ref="H12" r:id="rId3" xr:uid="{DBFFEE00-5BFE-4105-85DA-4AC193112329}"/>
     <hyperlink ref="H13" r:id="rId4" xr:uid="{5B695168-9014-451A-8D5B-8DEF30923FBB}"/>
+    <hyperlink ref="H10" r:id="rId5" xr:uid="{438D1E3D-0A58-4842-A4CF-7E45F547F9C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>